--- a/biology/Botanique/Noccaea_perfoliata/Noccaea_perfoliata.xlsx
+++ b/biology/Botanique/Noccaea_perfoliata/Noccaea_perfoliata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microthlaspi perfoliatum (synonymes Thlaspi perfoliatum, Noccaea perfoliata), le Tabouret perfolié ou Mousselet, est une espèce de plantes à fleurs de la famille des Brassicaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une rosette basale aux feuilles oblongues, dentées ou non, monte une hampe florale portant de petites fleurs blanches. Les feuilles caulinaires sont en forme de cœur allongé engainant la tige. Les fruits sont aussi en forme de cœur avec de larges ailes. Floraison en avril.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante commune dans les terrains cultivés, les terrains vagues, les vieux murs dans toute l'Europe tempérée.
 </t>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Microthlaspi perfoliatum (L.) F.K.Mey.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés « Tabouret perfolié »[1],[2],[3] ou « Mousselet »[2].
-Microthlaspi perfoliatum a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Microthlaspi perfoliatum (L.) F.K.Mey..
+Ce taxon porte en français les noms vernaculaires ou normalisés « Tabouret perfolié » ou « Mousselet ».
+Microthlaspi perfoliatum a pour synonymes :
 Kandis perfoliata subsp. perfoliata
 Noccaea alpestris (Jacq.) Kerguélen
 Pterotropis impropera (Jord.) Fourr.
